--- a/report/Classtification.xlsx
+++ b/report/Classtification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t xml:space="preserve">Pricision</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sarima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DecisionTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANFIS</t>
   </si>
 </sst>
 </file>
@@ -166,15 +178,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17:L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.67"/>
@@ -465,6 +477,203 @@
       </c>
       <c r="E22" s="3" t="n">
         <v>0.67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">2*C38*D38/(C38+D38)</f>
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">2*C39*D39/(C39+D39)</f>
+        <v>0.952879581151832</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">2*C40*D40/(C40+D40)</f>
+        <v>0.949578947368421</v>
       </c>
     </row>
   </sheetData>
